--- a/pred_ohlcv/54_21/2019-10-31 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 RDN ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-4706.18828606747</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>378.9876139325297</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1201.05808606747</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10197.12459098551</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-571493.9863909855</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-573602.9863909855</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-578922.0892909855</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-579151.4940909855</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-578911.4939909856</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-580768.4939909856</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-581418.2192909856</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-583927.7167909857</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-585109.7166909857</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-583947.6331909858</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 RDN ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1201.05808606747</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-10323.3495909855</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-28008.88809098551</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-28834.87329098551</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-573602.9863909855</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-575133.9863909855</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-575132.9863909855</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-578922.0892909855</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-578911.4939909856</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-580768.4939909856</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-581418.2192909856</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-582777.7167909857</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-583927.7167909857</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-585109.7166909857</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-583947.6331909858</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-583946.6331909858</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
